--- a/data/training_validation_logs.xlsx
+++ b/data/training_validation_logs.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,10 +449,10 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="963" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,12 +493,12 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>final_file.csv</t>
+          <t>Wafer_07012024_000000.csv</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -514,6 +514,2346 @@
       <c r="F2" s="3" t="inlineStr">
         <is>
           <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>wafer_07012024_041011.csv</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>wafer_07012024_041011.csv</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>wafer_07012024_041011.csv</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_07012024_223345.csv</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_08012024_120000.csv</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_10012024_131534.csv</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_11012024_151432.csv</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_12012024_111.csv</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_12012024_111213.csv</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>wafer_13012024_090817.csv</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>wafer_13012024_090817.csv</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>wafer_13012024_090817.csv</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>wafer_13012024_090817.csv</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_13012024_141000.csv</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_14012024_113045.csv</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_15012024_130532.csv</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>wafer_16012024_051629.csv</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>wafer_16012024_051629.csv</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>wafer_16012024_051629.csv</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>wafer_16012024_051629.csv</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>wafer_16012024_134553.csv</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>wafer_16012024_134553.csv</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN_DIFF BETWEEN DSA FILE AND PREDICTION FILE:-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>wafer_17012024_125434.csv</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>wafer_17012024_125434.csv</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN_DIFF BETWEEN DSA FILE AND PREDICTION FILE:-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_18012024_121532.csv</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_19012024_141432.csv</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>wafer_20012024_090819.csv</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>wafer_20012024_090819.csv</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>wafer_20012024_090819.csv</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_20012024_135132.csv</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>wafer_20022024_090716.csv</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>wafer_20022024_090716.csv</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>wafer_20022024_090716.csv</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>wafer_20022024_090716.csv</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>wafer_21012024_080913.csv</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>wafer_21012024_080913.csv</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>wafer_21012024_080913.csv</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>wafer_21012024_080913.csv</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_21012024_143634.csv</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_22012024_173245.csv</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>wafer_22022024_041119.csv</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>wafer_22022024_041119.csv</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>wafer_22022024_041119.csv</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>wafer_23012024_011008.csv</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>wafer_23012024_011008.csv</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>wafer_23012024_011008.csv</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>wafer_23012024_041211.csv</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>wafer_23012024_041211.csv</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>wafer_23012024_041211.csv</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>wafer_23012024_041211.csv</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_23012024_163456.csv</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_24012024_150121.csv</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Wafer_25012024_142112.csv</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>wafer_27012024_080911.csv</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>wafer_27012024_080911.csv</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>wafer_27012024_080911.csv</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>wafer_27012024_080911.csv</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28012024_051011.csv</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28012024_051011.csv</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28012024_051011.csv</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28012024_090817.csv</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28012024_090817.csv</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28012024_090817.csv</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28012024_090817.csv</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28042024_031911.csv</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28042024_031911.csv</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28042024_031911.csv</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>wafer_28042024_031911.csv</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>wafer_29012024_050617.csv</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>wafer_29012024_050617.csv</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>wafer_29012024_050617.csv</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>wafer_29012024_050617.csv</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>wafer_29012024_060756.csv</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>wafer_29012024_060756.csv</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>wafer_29012024_060756.csv</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>wafer_31012024_090811.csv</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>FILE NAME VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>wafer_31012024_090811.csv</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>NUMBER OF COLUMNS VALIDATION COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>wafer_31012024_090811.csv</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>COLUMNDATA_WHOLE_MISSING_VALIDATION</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN DATA WHOLE MISSING VALIDATION FAILED, MISMATCH COLUMN LIST:[{'Sensor_Name': 'Sensor-86', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-110', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-111', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-112', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-221', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-245', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-246', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-247', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-359', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-383', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-384', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-385', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-493', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-517', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-518', 'Column_Data': [100, 0]}, {'Sensor_Name': 'Sensor-519', 'Column_Data': [100, 0]}]</t>
         </is>
       </c>
     </row>

--- a/data/training_validation_logs.xlsx
+++ b/data/training_validation_logs.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">

--- a/data/training_validation_logs.xlsx
+++ b/data/training_validation_logs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
